--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizab\OneDrive\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD80B8A-C023-4175-B00F-D1B1D0E7853B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A1775A-1AE6-4C03-815C-8E23A6AA292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRACTICE 1" sheetId="1" r:id="rId1"/>
     <sheet name="PRACTICE 2" sheetId="2" r:id="rId2"/>
     <sheet name="PRACTICE 3" sheetId="3" r:id="rId3"/>
+    <sheet name="PRACTICAL4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Study Hours (X)</t>
   </si>
@@ -89,12 +90,34 @@
   <si>
     <t>Salary ($1000, Y)</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Surface_m²</t>
+  </si>
+  <si>
+    <t>Nbre_Pièces</t>
+  </si>
+  <si>
+    <t>Âge_Maison</t>
+  </si>
+  <si>
+    <t>Distance_Centre (km)</t>
+  </si>
+  <si>
+    <t>Prix (en 1000€)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +157,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,10 +209,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -190,8 +227,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -199,18 +239,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA9CBE9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1777,6 +1826,2150 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PRICE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> BY DISTANCE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8263998250218727E-2"/>
+                  <c:y val="-0.72228674540682414"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAA1-4483-90AA-AA75BB273029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1622149023"/>
+        <c:axId val="1622151103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1622149023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622151103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1622151103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622149023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Prix (en 1000€) EN FONCTION DE SURFACE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PRACTICAL4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prix (en 1000€)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1832338145231846"/>
+                  <c:y val="0.5708136482939633"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-48A4-456A-AD01-2126B3F3B510}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1622114911"/>
+        <c:axId val="1622115327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1622114911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622115327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1622115327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622114911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PRICE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> BY DISTANCE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8263998250218727E-2"/>
+                  <c:y val="-0.72228674540682414"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="23000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8639107611548553E-2"/>
+                  <c:y val="-0.45994641294838146"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="92D050">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7502187226596678E-3"/>
+                  <c:y val="-0.2912871828521435"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAA1-4483-90AA-AA75BB273029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1622149023"/>
+        <c:axId val="1622151103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1622149023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622151103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1622151103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622149023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1937,6 +4130,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
@@ -3518,6 +5831,1576 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4192,6 +8075,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC21634-4976-418B-8716-D5F251C3FF8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D221303-5943-46D2-89A6-5692EDD259A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068D7820-CB9A-414F-A8B5-452FDF94D656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4457,8 +8453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4517,61 +8513,61 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4596,7 +8592,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4606,10 +8602,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4678,10 +8674,10 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4704,7 +8700,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4714,10 +8710,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4759,6 +8755,1049 @@
       </c>
       <c r="B10" s="1">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E226707-C9D7-4195-A30B-AA04FC29F583}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>120</v>
+      </c>
+      <c r="C3" s="12">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F4" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>100</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <v>150</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>200</v>
+      </c>
+      <c r="C8" s="12">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="13">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>40</v>
+      </c>
+      <c r="E11" s="12">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12">
+        <v>130</v>
+      </c>
+      <c r="C12" s="12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>95</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <v>160</v>
+      </c>
+      <c r="C14" s="12">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12">
+        <v>180</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12">
+        <v>60</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12">
+        <v>85</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F17" s="13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12">
+        <v>140</v>
+      </c>
+      <c r="C18" s="12">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12">
+        <v>3</v>
+      </c>
+      <c r="F18" s="13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12">
+        <v>170</v>
+      </c>
+      <c r="C19" s="12">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12">
+        <v>75</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12">
+        <v>30</v>
+      </c>
+      <c r="E20" s="12">
+        <v>13</v>
+      </c>
+      <c r="F20" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12">
+        <v>105</v>
+      </c>
+      <c r="C21" s="12">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12">
+        <v>7</v>
+      </c>
+      <c r="F21" s="13">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12">
+        <v>65</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12">
+        <v>35</v>
+      </c>
+      <c r="E22" s="12">
+        <v>14</v>
+      </c>
+      <c r="F22" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
+        <v>90</v>
+      </c>
+      <c r="C23" s="12">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12">
+        <v>22</v>
+      </c>
+      <c r="E23" s="12">
+        <v>6</v>
+      </c>
+      <c r="F23" s="13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12">
+        <v>125</v>
+      </c>
+      <c r="C24" s="12">
+        <v>5</v>
+      </c>
+      <c r="D24" s="12">
+        <v>8</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F24" s="13">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12">
+        <v>135</v>
+      </c>
+      <c r="C25" s="12">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12">
+        <v>150</v>
+      </c>
+      <c r="C26" s="12">
+        <v>5</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12">
+        <v>95</v>
+      </c>
+      <c r="C27" s="12">
+        <v>3</v>
+      </c>
+      <c r="D27" s="12">
+        <v>17</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="F27" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12">
+        <v>160</v>
+      </c>
+      <c r="C28" s="12">
+        <v>5</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="13">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12">
+        <v>175</v>
+      </c>
+      <c r="C29" s="12">
+        <v>6</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29" s="13">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12">
+        <v>70</v>
+      </c>
+      <c r="C30" s="12">
+        <v>2</v>
+      </c>
+      <c r="D30" s="12">
+        <v>28</v>
+      </c>
+      <c r="E30" s="12">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12">
+        <v>100</v>
+      </c>
+      <c r="C31" s="12">
+        <v>4</v>
+      </c>
+      <c r="D31" s="12">
+        <v>19</v>
+      </c>
+      <c r="E31" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="F31" s="13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12">
+        <v>60</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2</v>
+      </c>
+      <c r="D32" s="12">
+        <v>38</v>
+      </c>
+      <c r="E32" s="12">
+        <v>16</v>
+      </c>
+      <c r="F32" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12">
+        <v>85</v>
+      </c>
+      <c r="C33" s="12">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12">
+        <v>21</v>
+      </c>
+      <c r="E33" s="12">
+        <v>8</v>
+      </c>
+      <c r="F33" s="13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12">
+        <v>145</v>
+      </c>
+      <c r="C34" s="12">
+        <v>5</v>
+      </c>
+      <c r="D34" s="12">
+        <v>4</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="13">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12">
+        <v>165</v>
+      </c>
+      <c r="C35" s="12">
+        <v>6</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F35" s="13">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12">
+        <v>78</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2</v>
+      </c>
+      <c r="D36" s="12">
+        <v>27</v>
+      </c>
+      <c r="E36" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="F36" s="13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12">
+        <v>98</v>
+      </c>
+      <c r="C37" s="12">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12">
+        <v>15</v>
+      </c>
+      <c r="E37" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F37" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12">
+        <v>132</v>
+      </c>
+      <c r="C38" s="12">
+        <v>5</v>
+      </c>
+      <c r="D38" s="12">
+        <v>6</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3</v>
+      </c>
+      <c r="F38" s="13">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12">
+        <v>182</v>
+      </c>
+      <c r="C39" s="12">
+        <v>6</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F39" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12">
+        <v>58</v>
+      </c>
+      <c r="C40" s="12">
+        <v>2</v>
+      </c>
+      <c r="D40" s="12">
+        <v>41</v>
+      </c>
+      <c r="E40" s="12">
+        <v>18</v>
+      </c>
+      <c r="F40" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12">
+        <v>88</v>
+      </c>
+      <c r="C41" s="12">
+        <v>3</v>
+      </c>
+      <c r="D41" s="12">
+        <v>20</v>
+      </c>
+      <c r="E41" s="12">
+        <v>10</v>
+      </c>
+      <c r="F41" s="13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12">
+        <v>115</v>
+      </c>
+      <c r="C42" s="12">
+        <v>4</v>
+      </c>
+      <c r="D42" s="12">
+        <v>7</v>
+      </c>
+      <c r="E42" s="12">
+        <v>4</v>
+      </c>
+      <c r="F42" s="13">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12">
+        <v>148</v>
+      </c>
+      <c r="C43" s="12">
+        <v>5</v>
+      </c>
+      <c r="D43" s="12">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12">
+        <v>90</v>
+      </c>
+      <c r="C44" s="12">
+        <v>3</v>
+      </c>
+      <c r="D44" s="12">
+        <v>25</v>
+      </c>
+      <c r="E44" s="12">
+        <v>7</v>
+      </c>
+      <c r="F44" s="13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12">
+        <v>168</v>
+      </c>
+      <c r="C45" s="12">
+        <v>6</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12">
+        <v>72</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12">
+        <v>30</v>
+      </c>
+      <c r="E46" s="12">
+        <v>13.5</v>
+      </c>
+      <c r="F46" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12">
+        <v>107</v>
+      </c>
+      <c r="C47" s="12">
+        <v>4</v>
+      </c>
+      <c r="D47" s="12">
+        <v>17</v>
+      </c>
+      <c r="E47" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F47" s="13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12">
+        <v>59</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2</v>
+      </c>
+      <c r="D48" s="12">
+        <v>39</v>
+      </c>
+      <c r="E48" s="12">
+        <v>17</v>
+      </c>
+      <c r="F48" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12">
+        <v>83</v>
+      </c>
+      <c r="C49" s="12">
+        <v>3</v>
+      </c>
+      <c r="D49" s="12">
+        <v>23</v>
+      </c>
+      <c r="E49" s="12">
+        <v>9</v>
+      </c>
+      <c r="F49" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12">
+        <v>137</v>
+      </c>
+      <c r="C50" s="12">
+        <v>5</v>
+      </c>
+      <c r="D50" s="12">
+        <v>5</v>
+      </c>
+      <c r="E50" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F50" s="13">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12">
+        <v>158</v>
+      </c>
+      <c r="C51" s="12">
+        <v>5</v>
+      </c>
+      <c r="D51" s="12">
+        <v>2</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F51" s="13">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizab\OneDrive\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A1775A-1AE6-4C03-815C-8E23A6AA292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C1F43E-8C42-4D84-86BB-BA147516BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="PRACTICE 3" sheetId="3" r:id="rId3"/>
     <sheet name="PRACTICAL4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PRACTICAL4!$L$39:$P$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Study Hours (X)</t>
   </si>
@@ -108,6 +133,30 @@
   <si>
     <t>Prix (en 1000€)</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>LINEST</t>
+  </si>
+  <si>
+    <t>ESTIMATION</t>
+  </si>
+  <si>
+    <t>USING MATRIX</t>
+  </si>
+  <si>
+    <t>LINEARE</t>
+  </si>
+  <si>
+    <t>SLOP</t>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +164,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -165,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +233,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,12 +269,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -233,6 +318,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -242,18 +333,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3030,8 +3142,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3970,6 +4083,426 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LINEARE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> REGRESSION</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PRACTICAL4!$M$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$L$40:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$M$40:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41D7-4F75-B734-A3A386542612}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="342621584"/>
+        <c:axId val="342622416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="342621584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342622416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="342622416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342621584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4250,6 +4783,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
@@ -7401,6 +7974,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8185,6 +9274,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DAF630-AF63-4862-967A-503ECEC8A010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8513,61 +9638,61 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8583,7 +9708,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8674,10 +9799,10 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8765,10 +9890,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E226707-C9D7-4195-A30B-AA04FC29F583}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="J33" workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8778,1029 +9903,1272 @@
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="9">
         <v>80</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>3.2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>120</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>2.5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>60</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>15</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>100</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>20</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>90</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>7</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>4.3</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>150</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>200</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>0.8</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>75</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>25</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>10</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>110</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>30</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>7.5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>55</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>40</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>15</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>130</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>5</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>3</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>95</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>3</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>18</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>160</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>180</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>6</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>1.2</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>60</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>10</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>12</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>85</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>12</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>9.5</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <v>140</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>3</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="9">
         <v>170</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>5</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>2.5</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="9">
         <v>75</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>30</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>13</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <v>105</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>4</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>20</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>7</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="9">
         <v>65</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <v>35</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>14</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>90</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>3</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>22</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>6</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="9">
         <v>125</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>5</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>8</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>135</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="9">
         <v>4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>3</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>1.5</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="9">
         <v>150</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <v>5</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>95</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <v>3</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>17</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="9">
         <v>4.7</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>160</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="9">
         <v>5</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="9">
         <v>0.5</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>175</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="9">
         <v>6</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="9">
         <v>2</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="10">
         <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="9">
         <v>70</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="9">
         <v>2</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="9">
         <v>28</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <v>11</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="10">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>100</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <v>4</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
         <v>19</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="9">
         <v>6.5</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="10">
         <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="9">
         <v>60</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="9">
         <v>2</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="9">
         <v>38</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="9">
         <v>16</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="10">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>85</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="9">
         <v>3</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="9">
         <v>21</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="9">
         <v>8</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="10">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="9">
         <v>145</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <v>5</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="9">
         <v>4</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="10">
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>165</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <v>6</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="9">
         <v>2</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>1.3</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="10">
         <v>355</v>
       </c>
+      <c r="N35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q35" s="13"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="9">
         <v>78</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <v>2</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="9">
         <v>27</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <v>12.5</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="10">
         <v>155</v>
       </c>
+      <c r="N36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="9">
         <v>98</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="9">
         <v>3</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="9">
         <v>15</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <v>5.5</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="10">
         <v>200</v>
       </c>
+      <c r="N37" s="15" cm="1">
+        <f t="array" ref="N37:O37">LINEST(M40:M47,L40:L47,TRUE)</f>
+        <v>-14.77985230597743</v>
+      </c>
+      <c r="O37" s="15">
+        <v>342.46446983419258</v>
+      </c>
+      <c r="P37">
+        <f>SLOPE(M40:M47,L40:L47)</f>
+        <v>-14.77985230597743</v>
+      </c>
+      <c r="Q37">
+        <f>INTERCEPT(M40:M47,L40:L47)</f>
+        <v>342.46446983419258</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="9">
         <v>132</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="9">
         <v>5</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="9">
         <v>6</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <v>3</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="10">
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="9">
         <v>182</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="9">
         <v>6</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="9">
         <v>1</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="9">
         <v>0.7</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="10">
         <v>400</v>
       </c>
+      <c r="L39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="9">
         <v>58</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <v>2</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="9">
         <v>41</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="9">
         <v>18</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="10">
         <v>110</v>
       </c>
+      <c r="L40" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="M40" s="20">
+        <v>155</v>
+      </c>
+      <c r="N40" s="21">
+        <f>$N$37*L40+$O$37</f>
+        <v>157.7163160094747</v>
+      </c>
+      <c r="O40" s="24">
+        <f>N40-M40</f>
+        <v>2.7163160094746956</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="9">
         <v>88</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="9">
         <v>3</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="9">
         <v>20</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="9">
         <v>10</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="10">
         <v>175</v>
       </c>
+      <c r="L41" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="M41" s="20">
+        <v>200</v>
+      </c>
+      <c r="N41" s="21">
+        <f>$N$37*L41+$O$37</f>
+        <v>261.17528215131671</v>
+      </c>
+      <c r="O41" s="24">
+        <f t="shared" ref="O41:O47" si="0">N41-M41</f>
+        <v>61.175282151316708</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="9">
         <v>115</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="9">
         <v>4</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="9">
         <v>7</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="9">
         <v>4</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="10">
         <v>260</v>
       </c>
+      <c r="L42" s="9">
+        <v>3</v>
+      </c>
+      <c r="M42" s="20">
+        <v>295</v>
+      </c>
+      <c r="N42" s="21">
+        <f>$N$37*L42+$O$37</f>
+        <v>298.12491291626031</v>
+      </c>
+      <c r="O42" s="24">
+        <f t="shared" si="0"/>
+        <v>3.124912916260314</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="9">
         <v>148</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="9">
         <v>5</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="9">
         <v>3</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="9">
         <v>2.1</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <v>320</v>
       </c>
+      <c r="L43" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="M43" s="20">
+        <v>400</v>
+      </c>
+      <c r="N43" s="21">
+        <f>$N$37*L43+$O$37</f>
+        <v>332.11857322000839</v>
+      </c>
+      <c r="O43" s="25">
+        <f>N43-M43</f>
+        <v>-67.881426779991614</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="9">
         <v>90</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="9">
         <v>3</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="9">
         <v>25</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="9">
         <v>7</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="10">
         <v>185</v>
       </c>
+      <c r="L44" s="9">
+        <v>18</v>
+      </c>
+      <c r="M44" s="20">
+        <v>110</v>
+      </c>
+      <c r="N44" s="21">
+        <f>$N$37*L44+$O$37</f>
+        <v>76.427128326598847</v>
+      </c>
+      <c r="O44" s="24">
+        <f t="shared" si="0"/>
+        <v>-33.572871673401153</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="9">
         <v>168</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="9">
         <v>6</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="9">
         <v>2</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="9">
         <v>1</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="10">
         <v>370</v>
       </c>
+      <c r="L45" s="9">
+        <v>10</v>
+      </c>
+      <c r="M45" s="20">
+        <v>175</v>
+      </c>
+      <c r="N45" s="21">
+        <f>$N$37*L45+$O$37</f>
+        <v>194.66594677441827</v>
+      </c>
+      <c r="O45" s="24">
+        <f t="shared" si="0"/>
+        <v>19.665946774418273</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="9">
         <v>72</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="9">
         <v>2</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="9">
         <v>30</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="9">
         <v>13.5</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="10">
         <v>140</v>
       </c>
+      <c r="L46" s="9">
+        <v>4</v>
+      </c>
+      <c r="M46" s="20">
+        <v>260</v>
+      </c>
+      <c r="N46" s="21">
+        <f>$N$37*L46+$O$37</f>
+        <v>283.34506061028287</v>
+      </c>
+      <c r="O46" s="24">
+        <f t="shared" si="0"/>
+        <v>23.345060610282871</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="9">
         <v>107</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="9">
         <v>4</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="9">
         <v>17</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="9">
         <v>5.5</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="10">
         <v>225</v>
       </c>
+      <c r="L47" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="M47" s="20">
+        <v>320</v>
+      </c>
+      <c r="N47" s="21">
+        <f>$N$37*L47+$O$37</f>
+        <v>311.42677999163999</v>
+      </c>
+      <c r="O47" s="24">
+        <f t="shared" si="0"/>
+        <v>-8.5732200083600105</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="9">
         <v>59</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="9">
         <v>2</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="9">
         <v>39</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="9">
         <v>17</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="10">
         <v>105</v>
       </c>
+      <c r="L48" s="18">
+        <v>2</v>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="21">
+        <f>$N$37*L48+$O$37</f>
+        <v>312.9047652222377</v>
+      </c>
+      <c r="O48" s="24"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="9">
         <v>83</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="9">
         <v>3</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="9">
         <v>23</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="9">
         <v>9</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="10">
         <v>170</v>
       </c>
+      <c r="L49" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="21">
+        <f>$N$37*L49+$O$37</f>
+        <v>295.16894245506478</v>
+      </c>
+      <c r="O49" s="24"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="9">
         <v>137</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="9">
         <v>5</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="9">
         <v>5</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="10">
         <v>305</v>
       </c>
+      <c r="L50" s="18">
+        <v>6</v>
+      </c>
+      <c r="N50" s="21">
+        <f>$N$37*L50+$O$37</f>
+        <v>253.78535599832799</v>
+      </c>
+      <c r="O50" s="24"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="9">
         <v>158</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="9">
         <v>5</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="9">
         <v>2</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="9">
         <v>1.3</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="10">
         <v>335</v>
       </c>
+      <c r="L51" s="18">
+        <v>7</v>
+      </c>
+      <c r="N51" s="21">
+        <f>$N$37*L51+$O$37</f>
+        <v>239.00550369235057</v>
+      </c>
+      <c r="O51" s="24"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L52" s="18">
+        <v>8</v>
+      </c>
+      <c r="N52" s="21">
+        <f>$N$37*L52+$O$37</f>
+        <v>224.22565138637316</v>
+      </c>
+      <c r="O52" s="24"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L53" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="N53" s="21">
+        <f>$N$37*L53+$O$37</f>
+        <v>231.61557753936188</v>
+      </c>
+      <c r="O53" s="24"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L54" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="21">
+        <f>$N$37*L54+$O$37</f>
+        <v>292.2129719938693</v>
+      </c>
+      <c r="O54" s="24"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L55" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="N55" s="22">
+        <f>$N$37*L55+$O$37</f>
+        <v>295.16894245506478</v>
+      </c>
+      <c r="O55" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O40:O47">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>-3.35</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizab\OneDrive\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C1F43E-8C42-4D84-86BB-BA147516BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE890BFD-F730-4686-9694-88E620AD6D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRACTICE 1" sheetId="1" r:id="rId1"/>
     <sheet name="PRACTICE 2" sheetId="2" r:id="rId2"/>
     <sheet name="PRACTICE 3" sheetId="3" r:id="rId3"/>
     <sheet name="PRACTICAL4" sheetId="4" r:id="rId4"/>
+    <sheet name="predict-poiture" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PRACTICAL4!$L$39:$P$54</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Study Hours (X)</t>
   </si>
@@ -156,6 +157,12 @@
   </si>
   <si>
     <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>Âge (X)</t>
+  </si>
+  <si>
+    <t>Pointure (Y)</t>
   </si>
 </sst>
 </file>
@@ -298,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -324,6 +331,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -333,22 +353,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4503,6 +4513,569 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'predict-poiture'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pointure (Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0288652008121628E-2"/>
+                  <c:y val="-0.12476092896174863"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16919059203684444"/>
+                  <c:y val="-0.13773207908437674"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'predict-poiture'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'predict-poiture'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE60-48DD-B347-97B30A17EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="324275008"/>
+        <c:axId val="324312448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="324275008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324312448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="324312448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324275008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4823,6 +5396,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
@@ -9001,6 +9614,508 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9313,6 +10428,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E1E233-CB66-43DE-B919-465DE90770A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9638,61 +10794,61 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9799,10 +10955,10 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9892,7 +11048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E226707-C9D7-4195-A30B-AA04FC29F583}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J33" workbookViewId="0">
+    <sheetView topLeftCell="J33" workbookViewId="0">
       <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
@@ -10605,14 +11761,14 @@
       <c r="F35" s="10">
         <v>355</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13" t="s">
+      <c r="O35" s="24"/>
+      <c r="P35" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="13"/>
+      <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
@@ -10633,10 +11789,10 @@
       <c r="F36" s="10">
         <v>155</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="16"/>
+      <c r="O36" s="25"/>
       <c r="P36" t="s">
         <v>27</v>
       </c>
@@ -10663,11 +11819,11 @@
       <c r="F37" s="10">
         <v>200</v>
       </c>
-      <c r="N37" s="15" cm="1">
+      <c r="N37" s="12" cm="1">
         <f t="array" ref="N37:O37">LINEST(M40:M47,L40:L47,TRUE)</f>
         <v>-14.77985230597743</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="12">
         <v>342.46446983419258</v>
       </c>
       <c r="P37">
@@ -10718,16 +11874,16 @@
       <c r="F39" s="10">
         <v>400</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="11" t="s">
         <v>22</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="23" t="s">
+      <c r="O39" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10753,14 +11909,14 @@
       <c r="L40" s="9">
         <v>12.5</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="16">
         <v>155</v>
       </c>
-      <c r="N40" s="21">
-        <f>$N$37*L40+$O$37</f>
+      <c r="N40" s="17">
+        <f t="shared" ref="N40:N55" si="0">$N$37*L40+$O$37</f>
         <v>157.7163160094747</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="20">
         <f>N40-M40</f>
         <v>2.7163160094746956</v>
       </c>
@@ -10787,15 +11943,15 @@
       <c r="L41" s="9">
         <v>5.5</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="16">
         <v>200</v>
       </c>
-      <c r="N41" s="21">
-        <f>$N$37*L41+$O$37</f>
+      <c r="N41" s="17">
+        <f t="shared" si="0"/>
         <v>261.17528215131671</v>
       </c>
-      <c r="O41" s="24">
-        <f t="shared" ref="O41:O47" si="0">N41-M41</f>
+      <c r="O41" s="20">
+        <f t="shared" ref="O41:O47" si="1">N41-M41</f>
         <v>61.175282151316708</v>
       </c>
     </row>
@@ -10821,15 +11977,15 @@
       <c r="L42" s="9">
         <v>3</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="16">
         <v>295</v>
       </c>
-      <c r="N42" s="21">
-        <f>$N$37*L42+$O$37</f>
+      <c r="N42" s="17">
+        <f t="shared" si="0"/>
         <v>298.12491291626031</v>
       </c>
-      <c r="O42" s="24">
-        <f t="shared" si="0"/>
+      <c r="O42" s="20">
+        <f t="shared" si="1"/>
         <v>3.124912916260314</v>
       </c>
     </row>
@@ -10855,14 +12011,14 @@
       <c r="L43" s="9">
         <v>0.7</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="16">
         <v>400</v>
       </c>
-      <c r="N43" s="21">
-        <f>$N$37*L43+$O$37</f>
+      <c r="N43" s="17">
+        <f t="shared" si="0"/>
         <v>332.11857322000839</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="21">
         <f>N43-M43</f>
         <v>-67.881426779991614</v>
       </c>
@@ -10889,15 +12045,15 @@
       <c r="L44" s="9">
         <v>18</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="16">
         <v>110</v>
       </c>
-      <c r="N44" s="21">
-        <f>$N$37*L44+$O$37</f>
+      <c r="N44" s="17">
+        <f t="shared" si="0"/>
         <v>76.427128326598847</v>
       </c>
-      <c r="O44" s="24">
-        <f t="shared" si="0"/>
+      <c r="O44" s="20">
+        <f t="shared" si="1"/>
         <v>-33.572871673401153</v>
       </c>
     </row>
@@ -10923,15 +12079,15 @@
       <c r="L45" s="9">
         <v>10</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="16">
         <v>175</v>
       </c>
-      <c r="N45" s="21">
-        <f>$N$37*L45+$O$37</f>
+      <c r="N45" s="17">
+        <f t="shared" si="0"/>
         <v>194.66594677441827</v>
       </c>
-      <c r="O45" s="24">
-        <f t="shared" si="0"/>
+      <c r="O45" s="20">
+        <f t="shared" si="1"/>
         <v>19.665946774418273</v>
       </c>
     </row>
@@ -10957,15 +12113,15 @@
       <c r="L46" s="9">
         <v>4</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="16">
         <v>260</v>
       </c>
-      <c r="N46" s="21">
-        <f>$N$37*L46+$O$37</f>
+      <c r="N46" s="17">
+        <f t="shared" si="0"/>
         <v>283.34506061028287</v>
       </c>
-      <c r="O46" s="24">
-        <f t="shared" si="0"/>
+      <c r="O46" s="20">
+        <f t="shared" si="1"/>
         <v>23.345060610282871</v>
       </c>
     </row>
@@ -10991,15 +12147,15 @@
       <c r="L47" s="9">
         <v>2.1</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="16">
         <v>320</v>
       </c>
-      <c r="N47" s="21">
-        <f>$N$37*L47+$O$37</f>
+      <c r="N47" s="17">
+        <f t="shared" si="0"/>
         <v>311.42677999163999</v>
       </c>
-      <c r="O47" s="24">
-        <f t="shared" si="0"/>
+      <c r="O47" s="20">
+        <f t="shared" si="1"/>
         <v>-8.5732200083600105</v>
       </c>
     </row>
@@ -11022,15 +12178,15 @@
       <c r="F48" s="10">
         <v>105</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="14">
         <v>2</v>
       </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="21">
-        <f>$N$37*L48+$O$37</f>
+      <c r="M48" s="15"/>
+      <c r="N48" s="17">
+        <f t="shared" si="0"/>
         <v>312.9047652222377</v>
       </c>
-      <c r="O48" s="24"/>
+      <c r="O48" s="20"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
@@ -11051,15 +12207,15 @@
       <c r="F49" s="10">
         <v>170</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="14">
         <v>3.2</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="21">
-        <f>$N$37*L49+$O$37</f>
+      <c r="M49" s="15"/>
+      <c r="N49" s="17">
+        <f t="shared" si="0"/>
         <v>295.16894245506478</v>
       </c>
-      <c r="O49" s="24"/>
+      <c r="O49" s="20"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
@@ -11080,14 +12236,14 @@
       <c r="F50" s="10">
         <v>305</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="14">
         <v>6</v>
       </c>
-      <c r="N50" s="21">
-        <f>$N$37*L50+$O$37</f>
+      <c r="N50" s="17">
+        <f t="shared" si="0"/>
         <v>253.78535599832799</v>
       </c>
-      <c r="O50" s="24"/>
+      <c r="O50" s="20"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
@@ -11108,55 +12264,55 @@
       <c r="F51" s="10">
         <v>335</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="14">
         <v>7</v>
       </c>
-      <c r="N51" s="21">
-        <f>$N$37*L51+$O$37</f>
+      <c r="N51" s="17">
+        <f t="shared" si="0"/>
         <v>239.00550369235057</v>
       </c>
-      <c r="O51" s="24"/>
+      <c r="O51" s="20"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L52" s="18">
+      <c r="L52" s="14">
         <v>8</v>
       </c>
-      <c r="N52" s="21">
-        <f>$N$37*L52+$O$37</f>
+      <c r="N52" s="17">
+        <f t="shared" si="0"/>
         <v>224.22565138637316</v>
       </c>
-      <c r="O52" s="24"/>
+      <c r="O52" s="20"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L53" s="18">
+      <c r="L53" s="14">
         <v>7.5</v>
       </c>
-      <c r="N53" s="21">
-        <f>$N$37*L53+$O$37</f>
+      <c r="N53" s="17">
+        <f t="shared" si="0"/>
         <v>231.61557753936188</v>
       </c>
-      <c r="O53" s="24"/>
+      <c r="O53" s="20"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L54" s="18">
+      <c r="L54" s="14">
         <v>3.4</v>
       </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="21">
-        <f>$N$37*L54+$O$37</f>
+      <c r="M54" s="15"/>
+      <c r="N54" s="17">
+        <f t="shared" si="0"/>
         <v>292.2129719938693</v>
       </c>
-      <c r="O54" s="24"/>
+      <c r="O54" s="20"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L55" s="17">
+      <c r="L55" s="13">
         <v>3.2</v>
       </c>
-      <c r="N55" s="22">
-        <f>$N$37*L55+$O$37</f>
+      <c r="N55" s="18">
+        <f t="shared" si="0"/>
         <v>295.16894245506478</v>
       </c>
-      <c r="O55" s="24"/>
+      <c r="O55" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11172,4 +12328,410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D300B7D6-BE4C-4406-A52A-9A5F3A7F1D3C}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" cm="1">
+        <f t="array" ref="E1:F1">LINEST(B2:B21,A2:A21,TRUE)</f>
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="F1">
+        <v>21.199999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <f>$E$1*A2+$F$1</f>
+        <v>26.449999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C36" si="0">$E$1*A3+$F$1</f>
+        <v>27.499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>28.549999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>29.599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>41.150000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>45.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>46.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>47.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>49.550000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>51.650000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>53.750000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>54.800000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>55.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="26">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>56.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>57.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>59.000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>60.050000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="26">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>61.100000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>62.150000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizab\OneDrive\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE890BFD-F730-4686-9694-88E620AD6D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC17714-C724-42E3-9131-2ED13C76701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRACTICE 1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Study Hours (X)</t>
   </si>
@@ -164,6 +164,21 @@
   <si>
     <t>Pointure (Y)</t>
   </si>
+  <si>
+    <t>linest</t>
+  </si>
+  <si>
+    <t>PREDICT HERE</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y_EST</t>
+  </si>
+  <si>
+    <t>CORRELATION</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -344,6 +365,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -356,8 +380,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,6 +745,1383 @@
         <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PRACTICAL4!$M$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14134733158355206"/>
+                  <c:y val="-0.64476232137649458"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="44450">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14086132983377067"/>
+                  <c:y val="-0.49787510936132984"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$L$40:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$M$40:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5004-4FC2-AA6D-87CDF30A139C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1059308624"/>
+        <c:axId val="1059306128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1059308624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059306128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1059306128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059308624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$L$40:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PRACTICAL4!$M$40:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69B5-4A02-B224-AFE93AAAAF27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1107624624"/>
+        <c:axId val="1107625456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1107624624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107625456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1107625456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107624624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'predict-poiture'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pointure (Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0288652008121628E-2"/>
+                  <c:y val="-0.12476092896174863"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16919059203684444"/>
+                  <c:y val="-0.13773207908437674"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'predict-poiture'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'predict-poiture'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE60-48DD-B347-97B30A17EC6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="324275008"/>
+        <c:axId val="324312448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="324275008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324312448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="324312448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324275008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4541,19 +5948,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -4574,98 +5975,70 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'predict-poiture'!$B$1</c:f>
+              <c:f>PRACTICAL4!$M$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pointure (Y)</c:v>
+                  <c:v>y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="4"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.0288652008121628E-2"/>
-                  <c:y val="-0.12476092896174863"/>
+                  <c:x val="0.14136132983377078"/>
+                  <c:y val="-0.64586723534558177"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
+                <a:ln w="41275">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -4676,8 +6049,9 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="75000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -4694,7 +6068,59 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14170844269466318"/>
+                  <c:y val="-0.55495844269466321"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="41275">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -4706,15 +6132,17 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16919059203684444"/>
-                  <c:y val="-0.13773207908437674"/>
+                  <c:x val="0.14241688538932634"/>
+                  <c:y val="-0.35105314960629919"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
+                <a:ln w="53975">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -4725,8 +6153,9 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="75000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -4741,138 +6170,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'predict-poiture'!$A$2:$A$21</c:f>
+              <c:f>PRACTICAL4!$L$40:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'predict-poiture'!$B$2:$B$21</c:f>
+              <c:f>PRACTICAL4!$M$40:$M$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4880,7 +6237,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE60-48DD-B347-97B30A17EC6E}"/>
+              <c16:uniqueId val="{00000000-040D-4D53-A295-0B65EADD9A67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4892,11 +6249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324275008"/>
-        <c:axId val="324312448"/>
+        <c:axId val="1051517376"/>
+        <c:axId val="1056633936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324275008"/>
+        <c:axId val="1051517376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4906,9 +6263,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4924,10 +6281,12 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4938,8 +6297,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4950,12 +6310,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324312448"/>
+        <c:crossAx val="1056633936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324312448"/>
+        <c:axId val="1056633936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4965,9 +6325,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4975,7 +6335,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4983,10 +6343,12 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4997,8 +6359,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -5009,7 +6372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324275008"/>
+        <c:crossAx val="1051517376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5033,28 +6396,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -5077,6 +6429,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5965,7 +7437,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6481,542 +7953,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="79000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7532,2093 +8469,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10116,6 +8967,4175 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10425,6 +13445,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60571C82-C3BC-4234-A041-BA56AFCD554E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E6EC11-5091-42E5-8B5B-0CA84A62821A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213BBE70-61E1-4647-A607-3678BDF30458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10794,61 +13922,61 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10955,10 +14083,10 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11048,8 +14176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E226707-C9D7-4195-A30B-AA04FC29F583}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="J33" workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView tabSelected="1" topLeftCell="J52" workbookViewId="0">
+      <selection activeCell="AA92" sqref="AA92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11761,14 +14889,14 @@
       <c r="F35" s="10">
         <v>355</v>
       </c>
-      <c r="N35" s="24" t="s">
+      <c r="N35" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24" t="s">
+      <c r="O35" s="25"/>
+      <c r="P35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="24"/>
+      <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
@@ -11789,10 +14917,10 @@
       <c r="F36" s="10">
         <v>155</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="25"/>
+      <c r="O36" s="26"/>
       <c r="P36" t="s">
         <v>27</v>
       </c>
@@ -12332,10 +15460,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D300B7D6-BE4C-4406-A52A-9A5F3A7F1D3C}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12347,6 +15475,9 @@
       <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
       <c r="E1" cm="1">
         <f t="array" ref="E1:F1">LINEST(B2:B21,A2:A21,TRUE)</f>
         <v>1.0500000000000003</v>
@@ -12535,7 +15666,7 @@
         <v>41.150000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -12547,7 +15678,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -12559,7 +15690,7 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -12571,7 +15702,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -12583,7 +15714,7 @@
         <v>45.35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -12595,8 +15726,8 @@
         <v>46.400000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
         <v>25</v>
       </c>
       <c r="C22">
@@ -12604,8 +15735,8 @@
         <v>47.45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
         <v>26</v>
       </c>
       <c r="C23">
@@ -12613,8 +15744,8 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
         <v>27</v>
       </c>
       <c r="C24">
@@ -12622,8 +15753,8 @@
         <v>49.550000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
         <v>28</v>
       </c>
       <c r="C25">
@@ -12631,8 +15762,8 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
         <v>29</v>
       </c>
       <c r="C26">
@@ -12640,35 +15771,52 @@
         <v>51.650000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
         <v>30</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>52.7</v>
       </c>
+      <c r="G27" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="26">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
         <v>31</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>53.750000000000007</v>
       </c>
+      <c r="G28" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
         <v>32</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>54.800000000000004</v>
       </c>
+      <c r="G29" s="27">
+        <v>3</v>
+      </c>
+      <c r="H29" s="27">
+        <f>_xlfn.FORECAST.LINEAR($G$29,$B$2:$B$21,$A$2:$A$21)</f>
+        <v>24.349999999999994</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
         <v>33</v>
       </c>
       <c r="C30">
@@ -12676,35 +15824,51 @@
         <v>55.85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
         <v>34</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>56.900000000000006</v>
       </c>
+      <c r="G31" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
         <v>35</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>57.95</v>
       </c>
+      <c r="G32">
+        <f>CORREL(B2:B21,A2:A21)</f>
+        <v>0.97035905692824287</v>
+      </c>
+      <c r="H32">
+        <f>CORREL(A2:A21,B2:B21)</f>
+        <v>0.97035905692824287</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
         <v>36</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>59.000000000000007</v>
       </c>
+      <c r="G33">
+        <f>RSQ(B2:B21,A2:A21)</f>
+        <v>0.9415966993626691</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
         <v>37</v>
       </c>
       <c r="C34">
@@ -12712,8 +15876,8 @@
         <v>60.050000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
         <v>38</v>
       </c>
       <c r="C35">
@@ -12721,8 +15885,8 @@
         <v>61.100000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
         <v>39</v>
       </c>
       <c r="C36">
@@ -12731,6 +15895,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G31:H31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizab\OneDrive\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC17714-C724-42E3-9131-2ED13C76701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4495E931-2877-43BE-A62D-E4489806A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRACTICE 1" sheetId="1" r:id="rId1"/>
@@ -18,37 +18,29 @@
     <sheet name="PRACTICE 3" sheetId="3" r:id="rId3"/>
     <sheet name="PRACTICAL4" sheetId="4" r:id="rId4"/>
     <sheet name="predict-poiture" sheetId="5" r:id="rId5"/>
+    <sheet name="representation graphique" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PRACTICAL4!$L$39:$P$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -63,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Study Hours (X)</t>
   </si>
@@ -179,6 +171,21 @@
   <si>
     <t>CORRELATION</t>
   </si>
+  <si>
+    <t>f(x) = ax +b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f(x) = ax2 + bx + c</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -368,6 +381,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -380,13 +399,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2122,6 +2148,861 @@
     </a:gradFill>
     <a:ln>
       <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'representation graphique'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$F$6:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-196C-443A-AC34-0A5308ECFA28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="496310783"/>
+        <c:axId val="496305791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="496310783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496305791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="496305791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496310783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'representation graphique'!$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$F$28:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$G$28:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0A5-4394-9797-12321C777B8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="495611711"/>
+        <c:axId val="495612959"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="495611711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495612959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495612959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495611711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -6588,6 +7469,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8967,6 +9928,1060 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -13597,6 +15612,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC8515B-632A-475B-90AD-964B20B87DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C91D885-C371-4F04-824A-B66833A60A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13922,61 +16014,61 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14083,10 +16175,10 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14176,7 +16268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E226707-C9D7-4195-A30B-AA04FC29F583}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J52" workbookViewId="0">
+    <sheetView topLeftCell="J52" workbookViewId="0">
       <selection activeCell="AA92" sqref="AA92"/>
     </sheetView>
   </sheetViews>
@@ -14889,14 +16981,14 @@
       <c r="F35" s="10">
         <v>355</v>
       </c>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25" t="s">
+      <c r="O35" s="27"/>
+      <c r="P35" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="25"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
@@ -14917,10 +17009,10 @@
       <c r="F36" s="10">
         <v>155</v>
       </c>
-      <c r="N36" s="26" t="s">
+      <c r="N36" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="26"/>
+      <c r="O36" s="28"/>
       <c r="P36" t="s">
         <v>27</v>
       </c>
@@ -15779,10 +17871,10 @@
         <f t="shared" si="0"/>
         <v>52.7</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
@@ -15792,10 +17884,10 @@
         <f t="shared" si="0"/>
         <v>53.750000000000007</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -15807,10 +17899,10 @@
         <f t="shared" si="0"/>
         <v>54.800000000000004</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="23">
         <v>3</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="23">
         <f>_xlfn.FORECAST.LINEAR($G$29,$B$2:$B$21,$A$2:$A$21)</f>
         <v>24.349999999999994</v>
       </c>
@@ -15832,10 +17924,10 @@
         <f t="shared" si="0"/>
         <v>56.900000000000006</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
@@ -15902,4 +17994,454 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7BF3EF-B9FA-4C13-89FC-703B8C963B8B}">
+  <dimension ref="B4:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:G62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="30"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <f>$B$7*E6+$C$7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
+        <v>-3</v>
+      </c>
+      <c r="C7" s="31">
+        <v>4</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <f>$B$7*E7+$C$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="31">
+        <f t="shared" ref="F8:F11" si="0">$B$7*E8+$C$7</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="31">
+        <v>3</v>
+      </c>
+      <c r="F9" s="31">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="31">
+        <v>4</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="31">
+        <v>8</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="33"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
+        <v>2</v>
+      </c>
+      <c r="D28" s="23">
+        <v>4</v>
+      </c>
+      <c r="F28" s="34">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>$B$28*POWER(F28,2)+$C$28+F28+$D$28</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="34">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G62" si="1">$B$28*POWER(F29,2)+$C$28+F29+$D$28</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="34">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="34">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="34">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F33" s="34">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F34" s="34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F35" s="34">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F36" s="34">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F37" s="34">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="34">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="34">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="34">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="34">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="34">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="34">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="34">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="34">
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="34">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F47" s="34">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="34">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="34">
+        <v>22</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="34">
+        <v>23</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="34">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="34">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="34">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="34">
+        <v>27</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="34">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="34">
+        <v>29</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="34">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="34">
+        <v>31</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="34">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="34">
+        <v>33</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="34">
+        <v>34</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="34">
+        <v>35</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1266</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B25:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizab\OneDrive\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4495E931-2877-43BE-A62D-E4489806A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E3A9B-B36F-45EA-BB0B-5DE1DB78E808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,6 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -405,16 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2370,8 +2370,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2542,13 +2543,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2579,27 +2586,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2850,6 +2893,684 @@
       </c:scatterChart>
       <c:valAx>
         <c:axId val="495611711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495612959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495612959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495611711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$L$51:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.1591409142295226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44201270834387069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35875953437093183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33224722945892965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32040538709619409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31408358871885717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31030891686495171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30787385429334285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30621110074527808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30502508354208396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30414935387818681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30348430650606645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30296735036682693</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30255753919494305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82DD-4AA4-B193-7AD2BA07E52A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577614447"/>
+        <c:axId val="577618607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="577614447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577618607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="577618607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577614447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$K$51:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$K$51:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-90E4-48D7-9D2F-CC5909E7F101}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="660013343"/>
+        <c:axId val="660013759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660013343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,12 +3627,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495612959"/>
+        <c:crossAx val="660013759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495612959"/>
+        <c:axId val="660013759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +3689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495611711"/>
+        <c:crossAx val="660013343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7549,6 +8270,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10471,6 +11272,1024 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15653,15 +17472,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15681,6 +17500,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325C0B41-E61D-4EA4-A708-A38D9C473961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E1E64B-6323-4105-9FE4-9E2E136F4C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16014,61 +17905,61 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16175,10 +18066,10 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16981,14 +18872,14 @@
       <c r="F35" s="10">
         <v>355</v>
       </c>
-      <c r="N35" s="27" t="s">
+      <c r="N35" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27" t="s">
+      <c r="O35" s="30"/>
+      <c r="P35" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="30"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
@@ -17009,10 +18900,10 @@
       <c r="F36" s="10">
         <v>155</v>
       </c>
-      <c r="N36" s="28" t="s">
+      <c r="N36" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="28"/>
+      <c r="O36" s="31"/>
       <c r="P36" t="s">
         <v>27</v>
       </c>
@@ -17871,10 +19762,10 @@
         <f t="shared" si="0"/>
         <v>52.7</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
@@ -17924,10 +19815,10 @@
         <f t="shared" si="0"/>
         <v>56.900000000000006</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="27"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
@@ -17998,101 +19889,101 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7BF3EF-B9FA-4C13-89FC-703B8C963B8B}">
-  <dimension ref="B4:G62"/>
+  <dimension ref="B4:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:G62"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="E6" s="31">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="E6" s="25">
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="25">
         <f>$B$7*E6+$C$7</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
+      <c r="B7" s="25">
         <v>-3</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="25">
         <v>4</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="25">
         <f>$B$7*E7+$C$7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="31">
+      <c r="E8" s="25">
         <v>2</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="25">
         <f t="shared" ref="F8:F11" si="0">$B$7*E8+$C$7</f>
         <v>-2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="31">
+      <c r="E9" s="25">
         <v>3</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="31">
+      <c r="E10" s="25">
         <v>4</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="31">
+      <c r="E11" s="25">
         <v>8</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="34"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
@@ -18104,10 +19995,10 @@
       <c r="D27" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18121,7 +20012,7 @@
       <c r="D28" s="23">
         <v>4</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="27">
         <v>1</v>
       </c>
       <c r="G28">
@@ -18130,7 +20021,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F29" s="34">
+      <c r="F29" s="27">
         <v>2</v>
       </c>
       <c r="G29">
@@ -18139,7 +20030,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F30" s="34">
+      <c r="F30" s="27">
         <v>3</v>
       </c>
       <c r="G30">
@@ -18148,7 +20039,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="34">
+      <c r="F31" s="27">
         <v>4</v>
       </c>
       <c r="G31">
@@ -18157,7 +20048,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F32" s="34">
+      <c r="F32" s="27">
         <v>5</v>
       </c>
       <c r="G32">
@@ -18166,7 +20057,7 @@
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" s="34">
+      <c r="F33" s="27">
         <v>6</v>
       </c>
       <c r="G33">
@@ -18175,7 +20066,7 @@
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" s="34">
+      <c r="F34" s="27">
         <v>7</v>
       </c>
       <c r="G34">
@@ -18184,7 +20075,7 @@
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" s="34">
+      <c r="F35" s="27">
         <v>8</v>
       </c>
       <c r="G35">
@@ -18193,7 +20084,7 @@
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36" s="34">
+      <c r="F36" s="27">
         <v>9</v>
       </c>
       <c r="G36">
@@ -18202,7 +20093,7 @@
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F37" s="34">
+      <c r="F37" s="27">
         <v>10</v>
       </c>
       <c r="G37">
@@ -18211,7 +20102,7 @@
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F38" s="34">
+      <c r="F38" s="27">
         <v>11</v>
       </c>
       <c r="G38">
@@ -18220,7 +20111,7 @@
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F39" s="34">
+      <c r="F39" s="27">
         <v>12</v>
       </c>
       <c r="G39">
@@ -18229,7 +20120,7 @@
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F40" s="34">
+      <c r="F40" s="27">
         <v>13</v>
       </c>
       <c r="G40">
@@ -18238,7 +20129,7 @@
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F41" s="34">
+      <c r="F41" s="27">
         <v>14</v>
       </c>
       <c r="G41">
@@ -18247,7 +20138,7 @@
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" s="34">
+      <c r="F42" s="27">
         <v>15</v>
       </c>
       <c r="G42">
@@ -18256,7 +20147,7 @@
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="34">
+      <c r="F43" s="27">
         <v>16</v>
       </c>
       <c r="G43">
@@ -18265,7 +20156,7 @@
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="34">
+      <c r="F44" s="27">
         <v>17</v>
       </c>
       <c r="G44">
@@ -18274,7 +20165,7 @@
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="34">
+      <c r="F45" s="27">
         <v>18</v>
       </c>
       <c r="G45">
@@ -18283,7 +20174,7 @@
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F46" s="34">
+      <c r="F46" s="27">
         <v>19</v>
       </c>
       <c r="G46">
@@ -18292,7 +20183,7 @@
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="34">
+      <c r="F47" s="27">
         <v>20</v>
       </c>
       <c r="G47">
@@ -18301,7 +20192,7 @@
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F48" s="34">
+      <c r="F48" s="27">
         <v>21</v>
       </c>
       <c r="G48">
@@ -18309,8 +20200,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="34">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F49" s="27">
         <v>22</v>
       </c>
       <c r="G49">
@@ -18318,8 +20209,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="34">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F50" s="27">
         <v>23</v>
       </c>
       <c r="G50">
@@ -18327,112 +20218,256 @@
         <v>558</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="34">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F51" s="27">
         <v>24</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
         <v>606</v>
       </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f>0.5*EXP(POWER(K51,-2))-0.2</f>
+        <v>1.1591409142295226</v>
+      </c>
+      <c r="M51">
+        <v>-4</v>
+      </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="34">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F52" s="27">
         <v>25</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
         <v>656</v>
       </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ref="L52:L64" si="2">0.5*EXP(POWER(K52,-2))-0.2</f>
+        <v>0.44201270834387069</v>
+      </c>
+      <c r="M52">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="34">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F53" s="27">
         <v>26</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
         <v>708</v>
       </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>0.35875953437093183</v>
+      </c>
+      <c r="M53">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="34">
+    <row r="54" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F54" s="27">
         <v>27</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
         <v>762</v>
       </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>0.33224722945892965</v>
+      </c>
+      <c r="M54">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="34">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F55" s="27">
         <v>28</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
         <v>818</v>
       </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>0.32040538709619409</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="34">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F56" s="27">
         <v>29</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
         <v>876</v>
       </c>
+      <c r="K56">
+        <v>6</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>0.31408358871885717</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="34">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F57" s="27">
         <v>30</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
         <v>936</v>
       </c>
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>0.31030891686495171</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="34">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F58" s="27">
         <v>31</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
         <v>998</v>
       </c>
+      <c r="K58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>0.30787385429334285</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="34">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F59" s="27">
         <v>32</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
         <v>1062</v>
       </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>0.30621110074527808</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F60" s="34">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F60" s="27">
         <v>33</v>
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
         <v>1128</v>
       </c>
+      <c r="K60">
+        <v>10</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>0.30502508354208396</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F61" s="34">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F61" s="27">
         <v>34</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
         <v>1196</v>
       </c>
+      <c r="K61">
+        <v>11</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>0.30414935387818681</v>
+      </c>
+      <c r="M61">
+        <v>6</v>
+      </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F62" s="34">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="F62" s="27">
         <v>35</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
         <v>1266</v>
+      </c>
+      <c r="K62">
+        <v>12</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>0.30348430650606645</v>
+      </c>
+      <c r="M62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>13</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>0.30296735036682693</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>14</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>0.30255753919494305</v>
+      </c>
+      <c r="M64">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/REGRESSION.xlsx
+++ b/REGRESSION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizab\OneDrive\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E3A9B-B36F-45EA-BB0B-5DE1DB78E808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3593AC87-A0DF-4022-A26B-E65FA70C3976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11772" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3745,6 +3745,361 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$L$69:$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'representation graphique'!$M$69:$M$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E73F-4F4B-A61F-364B698E2964}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442908047"/>
+        <c:axId val="442908879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442908047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442908879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442908879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442908047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8350,6 +8705,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12290,6 +12685,522 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17577,6 +18488,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84F6E30-BD13-4783-8AD2-49F42486259B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19889,10 +20836,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7BF3EF-B9FA-4C13-89FC-703B8C963B8B}">
-  <dimension ref="B4:M64"/>
+  <dimension ref="B4:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20468,6 +21415,94 @@
       </c>
       <c r="M64">
         <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L70">
+        <v>1.3</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L71">
+        <v>1.5</v>
+      </c>
+      <c r="M71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L73">
+        <v>2.4</v>
+      </c>
+      <c r="M73">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L74">
+        <v>2.6</v>
+      </c>
+      <c r="M74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M77">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="78" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="L79">
+        <v>8</v>
+      </c>
+      <c r="M79">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
